--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Apoe-Ldlr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Apoe-Ldlr.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.020839</v>
+        <v>13.10570166666667</v>
       </c>
       <c r="H2">
-        <v>57.06251699999999</v>
+        <v>39.317105</v>
       </c>
       <c r="I2">
-        <v>0.002925155182898989</v>
+        <v>0.004355939447658156</v>
       </c>
       <c r="J2">
-        <v>0.002925155182898989</v>
+        <v>0.004355939447658156</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.298645666666667</v>
+        <v>3.716246</v>
       </c>
       <c r="N2">
-        <v>3.895937</v>
+        <v>11.148738</v>
       </c>
       <c r="O2">
-        <v>0.0230947416276088</v>
+        <v>0.05360372529499666</v>
       </c>
       <c r="P2">
-        <v>0.0230947416276088</v>
+        <v>0.05360372529499667</v>
       </c>
       <c r="Q2">
-        <v>24.70133014371433</v>
+        <v>48.70401139594334</v>
       </c>
       <c r="R2">
-        <v>222.311971293429</v>
+        <v>438.33610256349</v>
       </c>
       <c r="S2">
-        <v>6.755570316971291E-05</v>
+        <v>0.0002334945815539073</v>
       </c>
       <c r="T2">
-        <v>6.755570316971291E-05</v>
+        <v>0.0002334945815539073</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.020839</v>
+        <v>13.10570166666667</v>
       </c>
       <c r="H3">
-        <v>57.06251699999999</v>
+        <v>39.317105</v>
       </c>
       <c r="I3">
-        <v>0.002925155182898989</v>
+        <v>0.004355939447658156</v>
       </c>
       <c r="J3">
-        <v>0.002925155182898989</v>
+        <v>0.004355939447658156</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>57.348682</v>
       </c>
       <c r="O3">
-        <v>0.3399574976376413</v>
+        <v>0.2757355133790138</v>
       </c>
       <c r="P3">
-        <v>0.3399574976376413</v>
+        <v>0.2757355133790139</v>
       </c>
       <c r="Q3">
-        <v>363.6066823947327</v>
+        <v>250.5315724228456</v>
       </c>
       <c r="R3">
-        <v>3272.460141552594</v>
+        <v>2254.78415180561</v>
       </c>
       <c r="S3">
-        <v>0.0009944284361801173</v>
+        <v>0.001201087199847919</v>
       </c>
       <c r="T3">
-        <v>0.0009944284361801173</v>
+        <v>0.00120108719984792</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.020839</v>
+        <v>13.10570166666667</v>
       </c>
       <c r="H4">
-        <v>57.06251699999999</v>
+        <v>39.317105</v>
       </c>
       <c r="I4">
-        <v>0.002925155182898989</v>
+        <v>0.004355939447658156</v>
       </c>
       <c r="J4">
-        <v>0.002925155182898989</v>
+        <v>0.004355939447658156</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.81123966666667</v>
+        <v>30.325168</v>
       </c>
       <c r="N4">
-        <v>53.433719</v>
+        <v>90.975504</v>
       </c>
       <c r="O4">
-        <v>0.3167499717031489</v>
+        <v>0.4374150621343752</v>
       </c>
       <c r="P4">
-        <v>0.3167499717031489</v>
+        <v>0.4374150621343752</v>
       </c>
       <c r="Q4">
-        <v>338.7847220900803</v>
+        <v>397.4326047995467</v>
       </c>
       <c r="R4">
-        <v>3049.062498810722</v>
+        <v>3576.89344319592</v>
       </c>
       <c r="S4">
-        <v>0.0009265428214105742</v>
+        <v>0.001905353524150968</v>
       </c>
       <c r="T4">
-        <v>0.0009265428214105742</v>
+        <v>0.001905353524150968</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.020839</v>
+        <v>13.10570166666667</v>
       </c>
       <c r="H5">
-        <v>57.06251699999999</v>
+        <v>39.317105</v>
       </c>
       <c r="I5">
-        <v>0.002925155182898989</v>
+        <v>0.004355939447658156</v>
       </c>
       <c r="J5">
-        <v>0.002925155182898989</v>
+        <v>0.004355939447658156</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.093286666666667</v>
+        <v>6.927979666666666</v>
       </c>
       <c r="N5">
-        <v>12.27986</v>
+        <v>20.783939</v>
       </c>
       <c r="O5">
-        <v>0.0727938346855219</v>
+        <v>0.09993028419036913</v>
       </c>
       <c r="P5">
-        <v>0.0727938346855219</v>
+        <v>0.09993028419036913</v>
       </c>
       <c r="Q5">
-        <v>77.85774666751333</v>
+        <v>90.79603466406611</v>
       </c>
       <c r="R5">
-        <v>700.71972000762</v>
+        <v>817.1643119765949</v>
       </c>
       <c r="S5">
-        <v>0.0002129332628134466</v>
+        <v>0.0004352902669205191</v>
       </c>
       <c r="T5">
-        <v>0.0002129332628134466</v>
+        <v>0.0004352902669205191</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.020839</v>
+        <v>13.10570166666667</v>
       </c>
       <c r="H6">
-        <v>57.06251699999999</v>
+        <v>39.317105</v>
       </c>
       <c r="I6">
-        <v>0.002925155182898989</v>
+        <v>0.004355939447658156</v>
       </c>
       <c r="J6">
-        <v>0.002925155182898989</v>
+        <v>0.004355939447658156</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.724147666666667</v>
+        <v>2.05464</v>
       </c>
       <c r="N6">
-        <v>8.172442999999999</v>
+        <v>6.16392</v>
       </c>
       <c r="O6">
-        <v>0.04844545986019796</v>
+        <v>0.02963645521316725</v>
       </c>
       <c r="P6">
-        <v>0.04844545986019796</v>
+        <v>0.02963645521316725</v>
       </c>
       <c r="Q6">
-        <v>51.81557417989233</v>
+        <v>26.9274988724</v>
       </c>
       <c r="R6">
-        <v>466.3401676190309</v>
+        <v>242.3474898516</v>
       </c>
       <c r="S6">
-        <v>0.000141710487997983</v>
+        <v>0.0001290946043517894</v>
       </c>
       <c r="T6">
-        <v>0.000141710487997983</v>
+        <v>0.0001290946043517894</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>19.020839</v>
+        <v>13.10570166666667</v>
       </c>
       <c r="H7">
-        <v>57.06251699999999</v>
+        <v>39.317105</v>
       </c>
       <c r="I7">
-        <v>0.002925155182898989</v>
+        <v>0.004355939447658156</v>
       </c>
       <c r="J7">
-        <v>0.002925155182898989</v>
+        <v>0.004355939447658156</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.18768033333333</v>
+        <v>7.187868333333334</v>
       </c>
       <c r="N7">
-        <v>33.563041</v>
+        <v>21.563605</v>
       </c>
       <c r="O7">
-        <v>0.1989584944858812</v>
+        <v>0.103678959788078</v>
       </c>
       <c r="P7">
-        <v>0.1989584944858812</v>
+        <v>0.103678959788078</v>
       </c>
       <c r="Q7">
-        <v>212.7990664037996</v>
+        <v>94.20205799594723</v>
       </c>
       <c r="R7">
-        <v>1915.191597634197</v>
+        <v>847.8185219635251</v>
       </c>
       <c r="S7">
-        <v>0.0005819844713271555</v>
+        <v>0.0004516192708330524</v>
       </c>
       <c r="T7">
-        <v>0.0005819844713271554</v>
+        <v>0.0004516192708330524</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>9.729894999999999</v>
       </c>
       <c r="I8">
-        <v>0.0004987766801158274</v>
+        <v>0.001077974419837672</v>
       </c>
       <c r="J8">
-        <v>0.0004987766801158274</v>
+        <v>0.001077974419837672</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.298645666666667</v>
+        <v>3.716246</v>
       </c>
       <c r="N8">
-        <v>3.895937</v>
+        <v>11.148738</v>
       </c>
       <c r="O8">
-        <v>0.0230947416276088</v>
+        <v>0.05360372529499666</v>
       </c>
       <c r="P8">
-        <v>0.0230947416276088</v>
+        <v>0.05360372529499667</v>
       </c>
       <c r="Q8">
-        <v>4.211895326290556</v>
+        <v>12.05289445805667</v>
       </c>
       <c r="R8">
-        <v>37.907057936615</v>
+        <v>108.47605012251</v>
       </c>
       <c r="S8">
-        <v>1.151911855715152E-05</v>
+        <v>5.778344467601199E-05</v>
       </c>
       <c r="T8">
-        <v>1.151911855715152E-05</v>
+        <v>5.7783444676012E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>9.729894999999999</v>
       </c>
       <c r="I9">
-        <v>0.0004987766801158274</v>
+        <v>0.001077974419837672</v>
       </c>
       <c r="J9">
-        <v>0.0004987766801158274</v>
+        <v>0.001077974419837672</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>57.348682</v>
       </c>
       <c r="O9">
-        <v>0.3399574976376413</v>
+        <v>0.2757355133790138</v>
       </c>
       <c r="P9">
-        <v>0.3399574976376413</v>
+        <v>0.2757355133790139</v>
       </c>
       <c r="Q9">
         <v>61.99962824982111</v>
@@ -1013,10 +1013,10 @@
         <v>557.99665424839</v>
       </c>
       <c r="S9">
-        <v>0.0001695628720521869</v>
+        <v>0.0002972358300633852</v>
       </c>
       <c r="T9">
-        <v>0.0001695628720521869</v>
+        <v>0.0002972358300633852</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>9.729894999999999</v>
       </c>
       <c r="I10">
-        <v>0.0004987766801158274</v>
+        <v>0.001077974419837672</v>
       </c>
       <c r="J10">
-        <v>0.0004987766801158274</v>
+        <v>0.001077974419837672</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.81123966666667</v>
+        <v>30.325168</v>
       </c>
       <c r="N10">
-        <v>53.433719</v>
+        <v>90.975504</v>
       </c>
       <c r="O10">
-        <v>0.3167499717031489</v>
+        <v>0.4374150621343752</v>
       </c>
       <c r="P10">
-        <v>0.3167499717031489</v>
+        <v>0.4374150621343752</v>
       </c>
       <c r="Q10">
-        <v>57.76716392550055</v>
+        <v>98.35356683245334</v>
       </c>
       <c r="R10">
-        <v>519.9044753295049</v>
+        <v>885.1821014920799</v>
       </c>
       <c r="S10">
-        <v>0.0001579874993128789</v>
+        <v>0.0004715222478325626</v>
       </c>
       <c r="T10">
-        <v>0.0001579874993128789</v>
+        <v>0.0004715222478325626</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>9.729894999999999</v>
       </c>
       <c r="I11">
-        <v>0.0004987766801158274</v>
+        <v>0.001077974419837672</v>
       </c>
       <c r="J11">
-        <v>0.0004987766801158274</v>
+        <v>0.001077974419837672</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.093286666666667</v>
+        <v>6.927979666666666</v>
       </c>
       <c r="N11">
-        <v>12.27986</v>
+        <v>20.783939</v>
       </c>
       <c r="O11">
-        <v>0.0727938346855219</v>
+        <v>0.09993028419036913</v>
       </c>
       <c r="P11">
-        <v>0.0727938346855219</v>
+        <v>0.09993028419036913</v>
       </c>
       <c r="Q11">
-        <v>13.27574982385556</v>
+        <v>22.46950490626722</v>
       </c>
       <c r="R11">
-        <v>119.4817484147</v>
+        <v>202.225544156405</v>
       </c>
       <c r="S11">
-        <v>3.630786719734498E-05</v>
+        <v>0.0001077222901243269</v>
       </c>
       <c r="T11">
-        <v>3.630786719734498E-05</v>
+        <v>0.0001077222901243269</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>9.729894999999999</v>
       </c>
       <c r="I12">
-        <v>0.0004987766801158274</v>
+        <v>0.001077974419837672</v>
       </c>
       <c r="J12">
-        <v>0.0004987766801158274</v>
+        <v>0.001077974419837672</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.724147666666667</v>
+        <v>2.05464</v>
       </c>
       <c r="N12">
-        <v>8.172442999999999</v>
+        <v>6.16392</v>
       </c>
       <c r="O12">
-        <v>0.04844545986019796</v>
+        <v>0.02963645521316725</v>
       </c>
       <c r="P12">
-        <v>0.04844545986019796</v>
+        <v>0.02963645521316725</v>
       </c>
       <c r="Q12">
-        <v>8.835223587053889</v>
+        <v>6.6638104876</v>
       </c>
       <c r="R12">
-        <v>79.51701228348499</v>
+        <v>59.9742943884</v>
       </c>
       <c r="S12">
-        <v>2.416346563575412E-05</v>
+        <v>3.194734061445913E-05</v>
       </c>
       <c r="T12">
-        <v>2.416346563575412E-05</v>
+        <v>3.194734061445913E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>9.729894999999999</v>
       </c>
       <c r="I13">
-        <v>0.0004987766801158274</v>
+        <v>0.001077974419837672</v>
       </c>
       <c r="J13">
-        <v>0.0004987766801158274</v>
+        <v>0.001077974419837672</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.18768033333333</v>
+        <v>7.187868333333334</v>
       </c>
       <c r="N13">
-        <v>33.563041</v>
+        <v>21.563605</v>
       </c>
       <c r="O13">
-        <v>0.1989584944858812</v>
+        <v>0.103678959788078</v>
       </c>
       <c r="P13">
-        <v>0.1989584944858812</v>
+        <v>0.103678959788078</v>
       </c>
       <c r="Q13">
-        <v>36.28498497896611</v>
+        <v>23.31240138571945</v>
       </c>
       <c r="R13">
-        <v>326.5648648106949</v>
+        <v>209.811612471475</v>
       </c>
       <c r="S13">
-        <v>9.9235857360511E-05</v>
+        <v>0.0001117632665269267</v>
       </c>
       <c r="T13">
-        <v>9.923585736051098E-05</v>
+        <v>0.0001117632665269267</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2517.581258333333</v>
+        <v>608.3979493333333</v>
       </c>
       <c r="H14">
-        <v>7552.743774999999</v>
+        <v>1825.193848</v>
       </c>
       <c r="I14">
-        <v>0.3871709269072258</v>
+        <v>0.2022131050118309</v>
       </c>
       <c r="J14">
-        <v>0.3871709269072258</v>
+        <v>0.202213105011831</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.298645666666667</v>
+        <v>3.716246</v>
       </c>
       <c r="N14">
-        <v>3.895937</v>
+        <v>11.148738</v>
       </c>
       <c r="O14">
-        <v>0.0230947416276088</v>
+        <v>0.05360372529499666</v>
       </c>
       <c r="P14">
-        <v>0.0230947416276088</v>
+        <v>0.05360372529499667</v>
       </c>
       <c r="Q14">
-        <v>3269.445991615798</v>
+        <v>2260.956445618202</v>
       </c>
       <c r="R14">
-        <v>29425.01392454217</v>
+        <v>20348.60801056382</v>
       </c>
       <c r="S14">
-        <v>0.00894161252264419</v>
+        <v>0.0108393757321025</v>
       </c>
       <c r="T14">
-        <v>0.00894161252264419</v>
+        <v>0.0108393757321025</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2517.581258333333</v>
+        <v>608.3979493333333</v>
       </c>
       <c r="H15">
-        <v>7552.743774999999</v>
+        <v>1825.193848</v>
       </c>
       <c r="I15">
-        <v>0.3871709269072258</v>
+        <v>0.2022131050118309</v>
       </c>
       <c r="J15">
-        <v>0.3871709269072258</v>
+        <v>0.202213105011831</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>57.348682</v>
       </c>
       <c r="O15">
-        <v>0.3399574976376413</v>
+        <v>0.2757355133790138</v>
       </c>
       <c r="P15">
-        <v>0.3399574976376413</v>
+        <v>0.2757355133790139</v>
       </c>
       <c r="Q15">
-        <v>48126.65566443939</v>
+        <v>11630.27350858981</v>
       </c>
       <c r="R15">
-        <v>433139.9009799545</v>
+        <v>104672.4615773083</v>
       </c>
       <c r="S15">
-        <v>0.1316216594694266</v>
+        <v>0.05575733432240163</v>
       </c>
       <c r="T15">
-        <v>0.1316216594694266</v>
+        <v>0.05575733432240165</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2517.581258333333</v>
+        <v>608.3979493333333</v>
       </c>
       <c r="H16">
-        <v>7552.743774999999</v>
+        <v>1825.193848</v>
       </c>
       <c r="I16">
-        <v>0.3871709269072258</v>
+        <v>0.2022131050118309</v>
       </c>
       <c r="J16">
-        <v>0.3871709269072258</v>
+        <v>0.202213105011831</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.81123966666667</v>
+        <v>30.325168</v>
       </c>
       <c r="N16">
-        <v>53.433719</v>
+        <v>90.975504</v>
       </c>
       <c r="O16">
-        <v>0.3167499717031489</v>
+        <v>0.4374150621343752</v>
       </c>
       <c r="P16">
-        <v>0.3167499717031489</v>
+        <v>0.4374150621343752</v>
       </c>
       <c r="Q16">
-        <v>44841.24317248324</v>
+        <v>18449.77002438882</v>
       </c>
       <c r="R16">
-        <v>403571.1885523492</v>
+        <v>166047.9302194994</v>
       </c>
       <c r="S16">
-        <v>0.1226363801421457</v>
+        <v>0.08845105789313497</v>
       </c>
       <c r="T16">
-        <v>0.1226363801421457</v>
+        <v>0.08845105789313497</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2517.581258333333</v>
+        <v>608.3979493333333</v>
       </c>
       <c r="H17">
-        <v>7552.743774999999</v>
+        <v>1825.193848</v>
       </c>
       <c r="I17">
-        <v>0.3871709269072258</v>
+        <v>0.2022131050118309</v>
       </c>
       <c r="J17">
-        <v>0.3871709269072258</v>
+        <v>0.202213105011831</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.093286666666667</v>
+        <v>6.927979666666666</v>
       </c>
       <c r="N17">
-        <v>12.27986</v>
+        <v>20.783939</v>
       </c>
       <c r="O17">
-        <v>0.0727938346855219</v>
+        <v>0.09993028419036913</v>
       </c>
       <c r="P17">
-        <v>0.0727938346855219</v>
+        <v>0.09993028419036913</v>
       </c>
       <c r="Q17">
-        <v>10305.18179698572</v>
+        <v>4214.968622223029</v>
       </c>
       <c r="R17">
-        <v>92746.6361728715</v>
+        <v>37934.71760000727</v>
       </c>
       <c r="S17">
-        <v>0.02818365644832488</v>
+        <v>0.02020721305084922</v>
       </c>
       <c r="T17">
-        <v>0.02818365644832488</v>
+        <v>0.02020721305084922</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2517.581258333333</v>
+        <v>608.3979493333333</v>
       </c>
       <c r="H18">
-        <v>7552.743774999999</v>
+        <v>1825.193848</v>
       </c>
       <c r="I18">
-        <v>0.3871709269072258</v>
+        <v>0.2022131050118309</v>
       </c>
       <c r="J18">
-        <v>0.3871709269072258</v>
+        <v>0.202213105011831</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.724147666666667</v>
+        <v>2.05464</v>
       </c>
       <c r="N18">
-        <v>8.172442999999999</v>
+        <v>6.16392</v>
       </c>
       <c r="O18">
-        <v>0.04844545986019796</v>
+        <v>0.02963645521316725</v>
       </c>
       <c r="P18">
-        <v>0.04844545986019796</v>
+        <v>0.02963645521316725</v>
       </c>
       <c r="Q18">
-        <v>6858.26311053248</v>
+        <v>1250.03876261824</v>
       </c>
       <c r="R18">
-        <v>61724.36799479232</v>
+        <v>11250.34886356416</v>
       </c>
       <c r="S18">
-        <v>0.01875667359851965</v>
+        <v>0.005992879630198613</v>
       </c>
       <c r="T18">
-        <v>0.01875667359851965</v>
+        <v>0.005992879630198614</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2517.581258333333</v>
+        <v>608.3979493333333</v>
       </c>
       <c r="H19">
-        <v>7552.743774999999</v>
+        <v>1825.193848</v>
       </c>
       <c r="I19">
-        <v>0.3871709269072258</v>
+        <v>0.2022131050118309</v>
       </c>
       <c r="J19">
-        <v>0.3871709269072258</v>
+        <v>0.202213105011831</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>11.18768033333333</v>
+        <v>7.187868333333334</v>
       </c>
       <c r="N19">
-        <v>33.563041</v>
+        <v>21.563605</v>
       </c>
       <c r="O19">
-        <v>0.1989584944858812</v>
+        <v>0.103678959788078</v>
       </c>
       <c r="P19">
-        <v>0.1989584944858812</v>
+        <v>0.103678959788078</v>
       </c>
       <c r="Q19">
-        <v>28165.89433142442</v>
+        <v>4373.084354078004</v>
       </c>
       <c r="R19">
-        <v>253493.0489828197</v>
+        <v>39357.75918670205</v>
       </c>
       <c r="S19">
-        <v>0.0770309447261648</v>
+        <v>0.020965244383144</v>
       </c>
       <c r="T19">
-        <v>0.0770309447261648</v>
+        <v>0.02096524438314401</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>27.06326066666667</v>
+        <v>3.045399333333334</v>
       </c>
       <c r="H20">
-        <v>81.18978200000001</v>
+        <v>9.136198</v>
       </c>
       <c r="I20">
-        <v>0.004161973991013034</v>
+        <v>0.001012198768699159</v>
       </c>
       <c r="J20">
-        <v>0.004161973991013034</v>
+        <v>0.001012198768699159</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.298645666666667</v>
+        <v>3.716246</v>
       </c>
       <c r="N20">
-        <v>3.895937</v>
+        <v>11.148738</v>
       </c>
       <c r="O20">
-        <v>0.0230947416276088</v>
+        <v>0.05360372529499666</v>
       </c>
       <c r="P20">
-        <v>0.0230947416276088</v>
+        <v>0.05360372529499667</v>
       </c>
       <c r="Q20">
-        <v>35.14558619063712</v>
+        <v>11.31745309090267</v>
       </c>
       <c r="R20">
-        <v>316.3102757157341</v>
+        <v>101.857077818124</v>
       </c>
       <c r="S20">
-        <v>9.611971398327384E-05</v>
+        <v>5.425762474128359E-05</v>
       </c>
       <c r="T20">
-        <v>9.611971398327384E-05</v>
+        <v>5.425762474128359E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>27.06326066666667</v>
+        <v>3.045399333333334</v>
       </c>
       <c r="H21">
-        <v>81.18978200000001</v>
+        <v>9.136198</v>
       </c>
       <c r="I21">
-        <v>0.004161973991013034</v>
+        <v>0.001012198768699159</v>
       </c>
       <c r="J21">
-        <v>0.004161973991013034</v>
+        <v>0.001012198768699159</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>57.348682</v>
       </c>
       <c r="O21">
-        <v>0.3399574976376413</v>
+        <v>0.2757355133790138</v>
       </c>
       <c r="P21">
-        <v>0.3399574976376413</v>
+        <v>0.2757355133790139</v>
       </c>
       <c r="Q21">
-        <v>517.3474432852582</v>
+        <v>58.21654597678179</v>
       </c>
       <c r="R21">
-        <v>4656.126989567325</v>
+        <v>523.948913791036</v>
       </c>
       <c r="S21">
-        <v>0.001414894263217738</v>
+        <v>0.0002790991471288683</v>
       </c>
       <c r="T21">
-        <v>0.001414894263217738</v>
+        <v>0.0002790991471288683</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>27.06326066666667</v>
+        <v>3.045399333333334</v>
       </c>
       <c r="H22">
-        <v>81.18978200000001</v>
+        <v>9.136198</v>
       </c>
       <c r="I22">
-        <v>0.004161973991013034</v>
+        <v>0.001012198768699159</v>
       </c>
       <c r="J22">
-        <v>0.004161973991013034</v>
+        <v>0.001012198768699159</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>17.81123966666667</v>
+        <v>30.325168</v>
       </c>
       <c r="N22">
-        <v>53.433719</v>
+        <v>90.975504</v>
       </c>
       <c r="O22">
-        <v>0.3167499717031489</v>
+        <v>0.4374150621343752</v>
       </c>
       <c r="P22">
-        <v>0.3167499717031489</v>
+        <v>0.4374150621343752</v>
       </c>
       <c r="Q22">
-        <v>482.0302218954731</v>
+        <v>92.35224641042134</v>
       </c>
       <c r="R22">
-        <v>4338.271997059258</v>
+        <v>831.170217693792</v>
       </c>
       <c r="S22">
-        <v>0.00131830514388262</v>
+        <v>0.0004427509873028808</v>
       </c>
       <c r="T22">
-        <v>0.00131830514388262</v>
+        <v>0.0004427509873028807</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>27.06326066666667</v>
+        <v>3.045399333333334</v>
       </c>
       <c r="H23">
-        <v>81.18978200000001</v>
+        <v>9.136198</v>
       </c>
       <c r="I23">
-        <v>0.004161973991013034</v>
+        <v>0.001012198768699159</v>
       </c>
       <c r="J23">
-        <v>0.004161973991013034</v>
+        <v>0.001012198768699159</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>4.093286666666667</v>
+        <v>6.927979666666666</v>
       </c>
       <c r="N23">
-        <v>12.27986</v>
+        <v>20.783939</v>
       </c>
       <c r="O23">
-        <v>0.0727938346855219</v>
+        <v>0.09993028419036913</v>
       </c>
       <c r="P23">
-        <v>0.0727938346855219</v>
+        <v>0.09993028419036913</v>
       </c>
       <c r="Q23">
-        <v>110.7776840433911</v>
+        <v>21.09846465821356</v>
       </c>
       <c r="R23">
-        <v>996.9991563905202</v>
+        <v>189.886181923922</v>
       </c>
       <c r="S23">
-        <v>0.0003029660466672446</v>
+        <v>0.0001011493106132487</v>
       </c>
       <c r="T23">
-        <v>0.0003029660466672446</v>
+        <v>0.0001011493106132487</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>27.06326066666667</v>
+        <v>3.045399333333334</v>
       </c>
       <c r="H24">
-        <v>81.18978200000001</v>
+        <v>9.136198</v>
       </c>
       <c r="I24">
-        <v>0.004161973991013034</v>
+        <v>0.001012198768699159</v>
       </c>
       <c r="J24">
-        <v>0.004161973991013034</v>
+        <v>0.001012198768699159</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.724147666666667</v>
+        <v>2.05464</v>
       </c>
       <c r="N24">
-        <v>8.172442999999999</v>
+        <v>6.16392</v>
       </c>
       <c r="O24">
-        <v>0.04844545986019796</v>
+        <v>0.02963645521316725</v>
       </c>
       <c r="P24">
-        <v>0.04844545986019796</v>
+        <v>0.02963645521316725</v>
       </c>
       <c r="Q24">
-        <v>73.72431839749179</v>
+        <v>6.257199286240001</v>
       </c>
       <c r="R24">
-        <v>663.518865577426</v>
+        <v>56.31479357616</v>
       </c>
       <c r="S24">
-        <v>0.0002016287439208099</v>
+        <v>2.999798347537567E-05</v>
       </c>
       <c r="T24">
-        <v>0.0002016287439208099</v>
+        <v>2.999798347537566E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>27.06326066666667</v>
+        <v>3.045399333333334</v>
       </c>
       <c r="H25">
-        <v>81.18978200000001</v>
+        <v>9.136198</v>
       </c>
       <c r="I25">
-        <v>0.004161973991013034</v>
+        <v>0.001012198768699159</v>
       </c>
       <c r="J25">
-        <v>0.004161973991013034</v>
+        <v>0.001012198768699159</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>11.18768033333333</v>
+        <v>7.187868333333334</v>
       </c>
       <c r="N25">
-        <v>33.563041</v>
+        <v>21.563605</v>
       </c>
       <c r="O25">
-        <v>0.1989584944858812</v>
+        <v>0.103678959788078</v>
       </c>
       <c r="P25">
-        <v>0.1989584944858812</v>
+        <v>0.103678959788078</v>
       </c>
       <c r="Q25">
-        <v>302.7751091163402</v>
+        <v>21.88992943042112</v>
       </c>
       <c r="R25">
-        <v>2724.975982047062</v>
+        <v>197.00936487379</v>
       </c>
       <c r="S25">
-        <v>0.0008280600793413479</v>
+        <v>0.0001049437154375021</v>
       </c>
       <c r="T25">
-        <v>0.0008280600793413478</v>
+        <v>0.0001049437154375021</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>274.3202006666667</v>
+        <v>255.8380176666667</v>
       </c>
       <c r="H26">
-        <v>822.960602</v>
+        <v>767.514053</v>
       </c>
       <c r="I26">
-        <v>0.04218684342756861</v>
+        <v>0.08503283087843555</v>
       </c>
       <c r="J26">
-        <v>0.04218684342756862</v>
+        <v>0.08503283087843555</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.298645666666667</v>
+        <v>3.716246</v>
       </c>
       <c r="N26">
-        <v>3.895937</v>
+        <v>11.148738</v>
       </c>
       <c r="O26">
-        <v>0.0230947416276088</v>
+        <v>0.05360372529499666</v>
       </c>
       <c r="P26">
-        <v>0.0230947416276088</v>
+        <v>0.05360372529499667</v>
       </c>
       <c r="Q26">
-        <v>356.2447398748972</v>
+        <v>950.7570098016795</v>
       </c>
       <c r="R26">
-        <v>3206.202658874074</v>
+        <v>8556.813088215114</v>
       </c>
       <c r="S26">
-        <v>0.0009742942490440834</v>
+        <v>0.004558076507463569</v>
       </c>
       <c r="T26">
-        <v>0.0009742942490440836</v>
+        <v>0.00455807650746357</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>274.3202006666667</v>
+        <v>255.8380176666667</v>
       </c>
       <c r="H27">
-        <v>822.960602</v>
+        <v>767.514053</v>
       </c>
       <c r="I27">
-        <v>0.04218684342756861</v>
+        <v>0.08503283087843555</v>
       </c>
       <c r="J27">
-        <v>0.04218684342756862</v>
+        <v>0.08503283087843555</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>57.348682</v>
       </c>
       <c r="O27">
-        <v>0.3399574976376413</v>
+        <v>0.2757355133790138</v>
       </c>
       <c r="P27">
-        <v>0.3399574976376413</v>
+        <v>0.2757355133790139</v>
       </c>
       <c r="Q27">
-        <v>5243.967318069618</v>
+        <v>4890.65770622535</v>
       </c>
       <c r="R27">
-        <v>47195.70586262656</v>
+        <v>44015.91935602815</v>
       </c>
       <c r="S27">
-        <v>0.0143417337248672</v>
+        <v>0.02344657127633628</v>
       </c>
       <c r="T27">
-        <v>0.0143417337248672</v>
+        <v>0.02344657127633629</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>274.3202006666667</v>
+        <v>255.8380176666667</v>
       </c>
       <c r="H28">
-        <v>822.960602</v>
+        <v>767.514053</v>
       </c>
       <c r="I28">
-        <v>0.04218684342756861</v>
+        <v>0.08503283087843555</v>
       </c>
       <c r="J28">
-        <v>0.04218684342756862</v>
+        <v>0.08503283087843555</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>17.81123966666667</v>
+        <v>30.325168</v>
       </c>
       <c r="N28">
-        <v>53.433719</v>
+        <v>90.975504</v>
       </c>
       <c r="O28">
-        <v>0.3167499717031489</v>
+        <v>0.4374150621343752</v>
       </c>
       <c r="P28">
-        <v>0.3167499717031489</v>
+        <v>0.4374150621343752</v>
       </c>
       <c r="Q28">
-        <v>4885.982839482092</v>
+        <v>7758.330866528635</v>
       </c>
       <c r="R28">
-        <v>43973.84555533883</v>
+        <v>69824.97779875771</v>
       </c>
       <c r="S28">
-        <v>0.01336268146192753</v>
+        <v>0.0371946410021527</v>
       </c>
       <c r="T28">
-        <v>0.01336268146192753</v>
+        <v>0.0371946410021527</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>274.3202006666667</v>
+        <v>255.8380176666667</v>
       </c>
       <c r="H29">
-        <v>822.960602</v>
+        <v>767.514053</v>
       </c>
       <c r="I29">
-        <v>0.04218684342756861</v>
+        <v>0.08503283087843555</v>
       </c>
       <c r="J29">
-        <v>0.04218684342756862</v>
+        <v>0.08503283087843555</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>4.093286666666667</v>
+        <v>6.927979666666666</v>
       </c>
       <c r="N29">
-        <v>12.27986</v>
+        <v>20.783939</v>
       </c>
       <c r="O29">
-        <v>0.0727938346855219</v>
+        <v>0.09993028419036913</v>
       </c>
       <c r="P29">
-        <v>0.0727938346855219</v>
+        <v>0.09993028419036913</v>
       </c>
       <c r="Q29">
-        <v>1122.871219786191</v>
+        <v>1772.440584354974</v>
       </c>
       <c r="R29">
-        <v>10105.84097807572</v>
+        <v>15951.96525919477</v>
       </c>
       <c r="S29">
-        <v>0.003070942106370426</v>
+        <v>0.008497354955193661</v>
       </c>
       <c r="T29">
-        <v>0.003070942106370426</v>
+        <v>0.008497354955193661</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>274.3202006666667</v>
+        <v>255.8380176666667</v>
       </c>
       <c r="H30">
-        <v>822.960602</v>
+        <v>767.514053</v>
       </c>
       <c r="I30">
-        <v>0.04218684342756861</v>
+        <v>0.08503283087843555</v>
       </c>
       <c r="J30">
-        <v>0.04218684342756862</v>
+        <v>0.08503283087843555</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>2.724147666666667</v>
+        <v>2.05464</v>
       </c>
       <c r="N30">
-        <v>8.172442999999999</v>
+        <v>6.16392</v>
       </c>
       <c r="O30">
-        <v>0.04844545986019796</v>
+        <v>0.02963645521316725</v>
       </c>
       <c r="P30">
-        <v>0.04844545986019796</v>
+        <v>0.02963645521316725</v>
       </c>
       <c r="Q30">
-        <v>747.2887345656318</v>
+        <v>525.65502461864</v>
       </c>
       <c r="R30">
-        <v>6725.598611090685</v>
+        <v>4730.89522156776</v>
       </c>
       <c r="S30">
-        <v>0.002043761029898732</v>
+        <v>0.00252007168397758</v>
       </c>
       <c r="T30">
-        <v>0.002043761029898732</v>
+        <v>0.00252007168397758</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>274.3202006666667</v>
+        <v>255.8380176666667</v>
       </c>
       <c r="H31">
-        <v>822.960602</v>
+        <v>767.514053</v>
       </c>
       <c r="I31">
-        <v>0.04218684342756861</v>
+        <v>0.08503283087843555</v>
       </c>
       <c r="J31">
-        <v>0.04218684342756862</v>
+        <v>0.08503283087843555</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>11.18768033333333</v>
+        <v>7.187868333333334</v>
       </c>
       <c r="N31">
-        <v>33.563041</v>
+        <v>21.563605</v>
       </c>
       <c r="O31">
-        <v>0.1989584944858812</v>
+        <v>0.103678959788078</v>
       </c>
       <c r="P31">
-        <v>0.1989584944858812</v>
+        <v>0.103678959788078</v>
       </c>
       <c r="Q31">
-        <v>3069.00671403452</v>
+        <v>1838.929985649007</v>
       </c>
       <c r="R31">
-        <v>27621.06042631068</v>
+        <v>16550.36987084107</v>
       </c>
       <c r="S31">
-        <v>0.008393430855460645</v>
+        <v>0.008816115453311752</v>
       </c>
       <c r="T31">
-        <v>0.008393430855460645</v>
+        <v>0.008816115453311752</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>3661.277099333334</v>
+        <v>2125.066569</v>
       </c>
       <c r="H32">
-        <v>10983.831298</v>
+        <v>6375.199707000001</v>
       </c>
       <c r="I32">
-        <v>0.5630563238111778</v>
+        <v>0.7063079514735385</v>
       </c>
       <c r="J32">
-        <v>0.5630563238111778</v>
+        <v>0.7063079514735385</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.298645666666667</v>
+        <v>3.716246</v>
       </c>
       <c r="N32">
-        <v>3.895937</v>
+        <v>11.148738</v>
       </c>
       <c r="O32">
-        <v>0.0230947416276088</v>
+        <v>0.05360372529499666</v>
       </c>
       <c r="P32">
-        <v>0.0230947416276088</v>
+        <v>0.05360372529499667</v>
       </c>
       <c r="Q32">
-        <v>4754.701639515138</v>
+        <v>7897.270136779975</v>
       </c>
       <c r="R32">
-        <v>42792.31475563623</v>
+        <v>71075.43123101979</v>
       </c>
       <c r="S32">
-        <v>0.01300364032021038</v>
+        <v>0.0378607374044594</v>
       </c>
       <c r="T32">
-        <v>0.01300364032021038</v>
+        <v>0.0378607374044594</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>3661.277099333334</v>
+        <v>2125.066569</v>
       </c>
       <c r="H33">
-        <v>10983.831298</v>
+        <v>6375.199707000001</v>
       </c>
       <c r="I33">
-        <v>0.5630563238111778</v>
+        <v>0.7063079514735385</v>
       </c>
       <c r="J33">
-        <v>0.5630563238111778</v>
+        <v>0.7063079514735385</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>57.348682</v>
       </c>
       <c r="O33">
-        <v>0.3399574976376413</v>
+        <v>0.2757355133790138</v>
       </c>
       <c r="P33">
-        <v>0.3399574976376413</v>
+        <v>0.2757355133790139</v>
       </c>
       <c r="Q33">
-        <v>69989.80536118326</v>
+        <v>40623.25563147069</v>
       </c>
       <c r="R33">
-        <v>629908.2482506493</v>
+        <v>365609.3006832362</v>
       </c>
       <c r="S33">
-        <v>0.1914152188718974</v>
+        <v>0.1947541856032357</v>
       </c>
       <c r="T33">
-        <v>0.1914152188718974</v>
+        <v>0.1947541856032358</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>3661.277099333334</v>
+        <v>2125.066569</v>
       </c>
       <c r="H34">
-        <v>10983.831298</v>
+        <v>6375.199707000001</v>
       </c>
       <c r="I34">
-        <v>0.5630563238111778</v>
+        <v>0.7063079514735385</v>
       </c>
       <c r="J34">
-        <v>0.5630563238111778</v>
+        <v>0.7063079514735385</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>17.81123966666667</v>
+        <v>30.325168</v>
       </c>
       <c r="N34">
-        <v>53.433719</v>
+        <v>90.975504</v>
       </c>
       <c r="O34">
-        <v>0.3167499717031489</v>
+        <v>0.4374150621343752</v>
       </c>
       <c r="P34">
-        <v>0.3167499717031489</v>
+        <v>0.4374150621343752</v>
       </c>
       <c r="Q34">
-        <v>65211.88390230414</v>
+        <v>64443.0007161086</v>
       </c>
       <c r="R34">
-        <v>586906.9551207373</v>
+        <v>579987.0064449774</v>
       </c>
       <c r="S34">
-        <v>0.1783480746344696</v>
+        <v>0.3089497364798011</v>
       </c>
       <c r="T34">
-        <v>0.1783480746344696</v>
+        <v>0.3089497364798011</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>3661.277099333334</v>
+        <v>2125.066569</v>
       </c>
       <c r="H35">
-        <v>10983.831298</v>
+        <v>6375.199707000001</v>
       </c>
       <c r="I35">
-        <v>0.5630563238111778</v>
+        <v>0.7063079514735385</v>
       </c>
       <c r="J35">
-        <v>0.5630563238111778</v>
+        <v>0.7063079514735385</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>4.093286666666667</v>
+        <v>6.927979666666666</v>
       </c>
       <c r="N35">
-        <v>12.27986</v>
+        <v>20.783939</v>
       </c>
       <c r="O35">
-        <v>0.0727938346855219</v>
+        <v>0.09993028419036913</v>
       </c>
       <c r="P35">
-        <v>0.0727938346855219</v>
+        <v>0.09993028419036913</v>
       </c>
       <c r="Q35">
-        <v>14986.65673367314</v>
+        <v>14722.4179803451</v>
       </c>
       <c r="R35">
-        <v>134879.9106030583</v>
+        <v>132501.7618231059</v>
       </c>
       <c r="S35">
-        <v>0.04098702895414857</v>
+        <v>0.07058155431666815</v>
       </c>
       <c r="T35">
-        <v>0.04098702895414857</v>
+        <v>0.07058155431666815</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>3661.277099333334</v>
+        <v>2125.066569</v>
       </c>
       <c r="H36">
-        <v>10983.831298</v>
+        <v>6375.199707000001</v>
       </c>
       <c r="I36">
-        <v>0.5630563238111778</v>
+        <v>0.7063079514735385</v>
       </c>
       <c r="J36">
-        <v>0.5630563238111778</v>
+        <v>0.7063079514735385</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>2.724147666666667</v>
+        <v>2.05464</v>
       </c>
       <c r="N36">
-        <v>8.172442999999999</v>
+        <v>6.16392</v>
       </c>
       <c r="O36">
-        <v>0.04844545986019796</v>
+        <v>0.02963645521316725</v>
       </c>
       <c r="P36">
-        <v>0.04844545986019796</v>
+        <v>0.02963645521316725</v>
       </c>
       <c r="Q36">
-        <v>9973.859467169003</v>
+        <v>4366.24677533016</v>
       </c>
       <c r="R36">
-        <v>89764.73520452101</v>
+        <v>39296.22097797145</v>
       </c>
       <c r="S36">
-        <v>0.02727752253422504</v>
+        <v>0.02093246397054943</v>
       </c>
       <c r="T36">
-        <v>0.02727752253422504</v>
+        <v>0.02093246397054943</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>3661.277099333334</v>
+        <v>2125.066569</v>
       </c>
       <c r="H37">
-        <v>10983.831298</v>
+        <v>6375.199707000001</v>
       </c>
       <c r="I37">
-        <v>0.5630563238111778</v>
+        <v>0.7063079514735385</v>
       </c>
       <c r="J37">
-        <v>0.5630563238111778</v>
+        <v>0.7063079514735385</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>11.18768033333333</v>
+        <v>7.187868333333334</v>
       </c>
       <c r="N37">
-        <v>33.563041</v>
+        <v>21.563605</v>
       </c>
       <c r="O37">
-        <v>0.1989584944858812</v>
+        <v>0.103678959788078</v>
       </c>
       <c r="P37">
-        <v>0.1989584944858812</v>
+        <v>0.103678959788078</v>
       </c>
       <c r="Q37">
-        <v>40961.19779909525</v>
+        <v>15274.69869754042</v>
       </c>
       <c r="R37">
-        <v>368650.7801918573</v>
+        <v>137472.2882778638</v>
       </c>
       <c r="S37">
-        <v>0.1120248384962268</v>
+        <v>0.07322927369882472</v>
       </c>
       <c r="T37">
-        <v>0.1120248384962268</v>
+        <v>0.07322927369882472</v>
       </c>
     </row>
   </sheetData>
